--- a/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10405469-30EC-4378-ACAC-536A51F17F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId3"/>
-    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId4"/>
+    <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
+    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -211,25 +211,28 @@
   </si>
   <si>
     <t>-*SMR</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>IRE</t>
+  </si>
+  <si>
+    <t>g[_]*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -269,130 +272,38 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499980002641678"/>
+        <color theme="4" tint="0.49995422223578601"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399980008602142"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="21"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="3">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Heading 2" xfId="20" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="21" builtinId="18"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -700,29 +611,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A3" sqref="A3:H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.8571428571429" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -754,30 +663,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5714285714286" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" thickBot="1">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -809,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -826,7 +734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="14.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -834,7 +742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="14.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -842,7 +750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="14.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -850,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="14.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -864,7 +772,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="14.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -872,7 +780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="14.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -880,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>41</v>
       </c>
@@ -888,7 +796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="14.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>37</v>
       </c>
@@ -896,7 +804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="14.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>50</v>
       </c>
@@ -904,7 +812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="14.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -915,7 +823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="14.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -926,7 +834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="14.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>52</v>
       </c>
@@ -934,7 +842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -945,7 +853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="14.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -962,7 +870,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -973,7 +881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -990,7 +898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -999,6 +907,17 @@
       </c>
       <c r="F20" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{235FD60C-9949-446D-94FA-450BE195B6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB09D566-9DD9-4720-9D48-D9571F0A47BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5494,7 +5494,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1ED0B48-6478-21BC-8AAC-29CFF507DCDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D056FD3-1304-8747-84EC-696771C82128}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6276,7 +6276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B154691-BDB6-42B6-B3CC-4C24B239F674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41FD01B-BC74-4E32-A91F-4EE6802853CB}">
   <dimension ref="A1:H829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB09D566-9DD9-4720-9D48-D9571F0A47BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AF9189-1BC4-4B13-A421-E49EBD04F41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4180,12 +4180,588 @@
     <t>elc*DEU_0001</t>
   </si>
   <si>
+    <t>rez_DEU_2</t>
+  </si>
+  <si>
+    <t>elc*DEU_0002</t>
+  </si>
+  <si>
+    <t>rez_DEU_3</t>
+  </si>
+  <si>
+    <t>elc*DEU_0003</t>
+  </si>
+  <si>
+    <t>rez_DEU_4</t>
+  </si>
+  <si>
+    <t>elc*DEU_0004</t>
+  </si>
+  <si>
+    <t>rez_DEU_5</t>
+  </si>
+  <si>
+    <t>elc*DEU_0005</t>
+  </si>
+  <si>
+    <t>rez_DEU_6</t>
+  </si>
+  <si>
+    <t>elc*DEU_0006</t>
+  </si>
+  <si>
+    <t>rez_DEU_7</t>
+  </si>
+  <si>
+    <t>elc*DEU_0007</t>
+  </si>
+  <si>
+    <t>rez_DEU_8</t>
+  </si>
+  <si>
+    <t>elc*DEU_0008</t>
+  </si>
+  <si>
+    <t>rez_DEU_9</t>
+  </si>
+  <si>
+    <t>elc*DEU_0009</t>
+  </si>
+  <si>
     <t>rez_DEU_10</t>
   </si>
   <si>
     <t>elc*DEU_0010</t>
   </si>
   <si>
+    <t>rez_DEU_11</t>
+  </si>
+  <si>
+    <t>elc*DEU_0011</t>
+  </si>
+  <si>
+    <t>rez_DEU_12</t>
+  </si>
+  <si>
+    <t>elc*DEU_0012</t>
+  </si>
+  <si>
+    <t>rez_DEU_13</t>
+  </si>
+  <si>
+    <t>elc*DEU_0013</t>
+  </si>
+  <si>
+    <t>rez_DEU_14</t>
+  </si>
+  <si>
+    <t>elc*DEU_0014</t>
+  </si>
+  <si>
+    <t>rez_DEU_15</t>
+  </si>
+  <si>
+    <t>elc*DEU_0015</t>
+  </si>
+  <si>
+    <t>rez_DEU_16</t>
+  </si>
+  <si>
+    <t>elc*DEU_0016</t>
+  </si>
+  <si>
+    <t>rez_DEU_17</t>
+  </si>
+  <si>
+    <t>elc*DEU_0017</t>
+  </si>
+  <si>
+    <t>rez_DEU_18</t>
+  </si>
+  <si>
+    <t>elc*DEU_0018</t>
+  </si>
+  <si>
+    <t>rez_DEU_19</t>
+  </si>
+  <si>
+    <t>elc*DEU_0019</t>
+  </si>
+  <si>
+    <t>rez_DEU_20</t>
+  </si>
+  <si>
+    <t>elc*DEU_0020</t>
+  </si>
+  <si>
+    <t>rez_DEU_21</t>
+  </si>
+  <si>
+    <t>elc*DEU_0021</t>
+  </si>
+  <si>
+    <t>rez_DEU_22</t>
+  </si>
+  <si>
+    <t>elc*DEU_0022</t>
+  </si>
+  <si>
+    <t>rez_DEU_23</t>
+  </si>
+  <si>
+    <t>elc*DEU_0023</t>
+  </si>
+  <si>
+    <t>rez_DEU_24</t>
+  </si>
+  <si>
+    <t>elc*DEU_0024</t>
+  </si>
+  <si>
+    <t>rez_DEU_25</t>
+  </si>
+  <si>
+    <t>elc*DEU_0025</t>
+  </si>
+  <si>
+    <t>rez_DEU_26</t>
+  </si>
+  <si>
+    <t>elc*DEU_0026</t>
+  </si>
+  <si>
+    <t>rez_DEU_27</t>
+  </si>
+  <si>
+    <t>elc*DEU_0027</t>
+  </si>
+  <si>
+    <t>rez_DEU_28</t>
+  </si>
+  <si>
+    <t>elc*DEU_0028</t>
+  </si>
+  <si>
+    <t>rez_DEU_29</t>
+  </si>
+  <si>
+    <t>elc*DEU_0029</t>
+  </si>
+  <si>
+    <t>rez_DEU_30</t>
+  </si>
+  <si>
+    <t>elc*DEU_0030</t>
+  </si>
+  <si>
+    <t>rez_DEU_31</t>
+  </si>
+  <si>
+    <t>elc*DEU_0031</t>
+  </si>
+  <si>
+    <t>rez_DEU_32</t>
+  </si>
+  <si>
+    <t>elc*DEU_0032</t>
+  </si>
+  <si>
+    <t>rez_DEU_33</t>
+  </si>
+  <si>
+    <t>elc*DEU_0033</t>
+  </si>
+  <si>
+    <t>rez_DEU_34</t>
+  </si>
+  <si>
+    <t>elc*DEU_0034</t>
+  </si>
+  <si>
+    <t>rez_DEU_35</t>
+  </si>
+  <si>
+    <t>elc*DEU_0035</t>
+  </si>
+  <si>
+    <t>rez_DEU_36</t>
+  </si>
+  <si>
+    <t>elc*DEU_0036</t>
+  </si>
+  <si>
+    <t>rez_DEU_37</t>
+  </si>
+  <si>
+    <t>elc*DEU_0037</t>
+  </si>
+  <si>
+    <t>rez_DEU_38</t>
+  </si>
+  <si>
+    <t>elc*DEU_0038</t>
+  </si>
+  <si>
+    <t>rez_DEU_39</t>
+  </si>
+  <si>
+    <t>elc*DEU_0039</t>
+  </si>
+  <si>
+    <t>rez_DEU_40</t>
+  </si>
+  <si>
+    <t>elc*DEU_0040</t>
+  </si>
+  <si>
+    <t>rez_DEU_41</t>
+  </si>
+  <si>
+    <t>elc*DEU_0041</t>
+  </si>
+  <si>
+    <t>rez_DEU_42</t>
+  </si>
+  <si>
+    <t>elc*DEU_0042</t>
+  </si>
+  <si>
+    <t>rez_DEU_43</t>
+  </si>
+  <si>
+    <t>elc*DEU_0043</t>
+  </si>
+  <si>
+    <t>rez_DEU_44</t>
+  </si>
+  <si>
+    <t>elc*DEU_0044</t>
+  </si>
+  <si>
+    <t>rez_DEU_45</t>
+  </si>
+  <si>
+    <t>elc*DEU_0045</t>
+  </si>
+  <si>
+    <t>rez_DEU_46</t>
+  </si>
+  <si>
+    <t>elc*DEU_0046</t>
+  </si>
+  <si>
+    <t>rez_DEU_47</t>
+  </si>
+  <si>
+    <t>elc*DEU_0047</t>
+  </si>
+  <si>
+    <t>rez_DEU_48</t>
+  </si>
+  <si>
+    <t>elc*DEU_0048</t>
+  </si>
+  <si>
+    <t>rez_DEU_49</t>
+  </si>
+  <si>
+    <t>elc*DEU_0049</t>
+  </si>
+  <si>
+    <t>rez_DEU_50</t>
+  </si>
+  <si>
+    <t>elc*DEU_0050</t>
+  </si>
+  <si>
+    <t>rez_DEU_52</t>
+  </si>
+  <si>
+    <t>elc*DEU_0052</t>
+  </si>
+  <si>
+    <t>rez_DEU_53</t>
+  </si>
+  <si>
+    <t>elc*DEU_0053</t>
+  </si>
+  <si>
+    <t>rez_DEU_54</t>
+  </si>
+  <si>
+    <t>elc*DEU_0054</t>
+  </si>
+  <si>
+    <t>rez_DEU_55</t>
+  </si>
+  <si>
+    <t>elc*DEU_0055</t>
+  </si>
+  <si>
+    <t>rez_DEU_56</t>
+  </si>
+  <si>
+    <t>elc*DEU_0056</t>
+  </si>
+  <si>
+    <t>rez_DEU_57</t>
+  </si>
+  <si>
+    <t>elc*DEU_0057</t>
+  </si>
+  <si>
+    <t>rez_DEU_58</t>
+  </si>
+  <si>
+    <t>elc*DEU_0058</t>
+  </si>
+  <si>
+    <t>rez_DEU_59</t>
+  </si>
+  <si>
+    <t>elc*DEU_0059</t>
+  </si>
+  <si>
+    <t>rez_DEU_60</t>
+  </si>
+  <si>
+    <t>elc*DEU_0060</t>
+  </si>
+  <si>
+    <t>rez_DEU_61</t>
+  </si>
+  <si>
+    <t>elc*DEU_0061</t>
+  </si>
+  <si>
+    <t>rez_DEU_62</t>
+  </si>
+  <si>
+    <t>elc*DEU_0062</t>
+  </si>
+  <si>
+    <t>rez_DEU_63</t>
+  </si>
+  <si>
+    <t>elc*DEU_0063</t>
+  </si>
+  <si>
+    <t>rez_DEU_64</t>
+  </si>
+  <si>
+    <t>elc*DEU_0064</t>
+  </si>
+  <si>
+    <t>rez_DEU_65</t>
+  </si>
+  <si>
+    <t>elc*DEU_0065</t>
+  </si>
+  <si>
+    <t>rez_DEU_66</t>
+  </si>
+  <si>
+    <t>elc*DEU_0066</t>
+  </si>
+  <si>
+    <t>rez_DEU_67</t>
+  </si>
+  <si>
+    <t>elc*DEU_0067</t>
+  </si>
+  <si>
+    <t>rez_DEU_68</t>
+  </si>
+  <si>
+    <t>elc*DEU_0068</t>
+  </si>
+  <si>
+    <t>rez_DEU_69</t>
+  </si>
+  <si>
+    <t>elc*DEU_0069</t>
+  </si>
+  <si>
+    <t>rez_DEU_70</t>
+  </si>
+  <si>
+    <t>elc*DEU_0070</t>
+  </si>
+  <si>
+    <t>rez_DEU_71</t>
+  </si>
+  <si>
+    <t>elc*DEU_0071</t>
+  </si>
+  <si>
+    <t>rez_DEU_72</t>
+  </si>
+  <si>
+    <t>elc*DEU_0072</t>
+  </si>
+  <si>
+    <t>rez_DEU_73</t>
+  </si>
+  <si>
+    <t>elc*DEU_0073</t>
+  </si>
+  <si>
+    <t>rez_DEU_74</t>
+  </si>
+  <si>
+    <t>elc*DEU_0074</t>
+  </si>
+  <si>
+    <t>rez_DEU_75</t>
+  </si>
+  <si>
+    <t>elc*DEU_0075</t>
+  </si>
+  <si>
+    <t>rez_DEU_76</t>
+  </si>
+  <si>
+    <t>elc*DEU_0076</t>
+  </si>
+  <si>
+    <t>rez_DEU_77</t>
+  </si>
+  <si>
+    <t>elc*DEU_0077</t>
+  </si>
+  <si>
+    <t>rez_DEU_78</t>
+  </si>
+  <si>
+    <t>elc*DEU_0078</t>
+  </si>
+  <si>
+    <t>rez_DEU_79</t>
+  </si>
+  <si>
+    <t>elc*DEU_0079</t>
+  </si>
+  <si>
+    <t>rez_DEU_80</t>
+  </si>
+  <si>
+    <t>elc*DEU_0080</t>
+  </si>
+  <si>
+    <t>rez_DEU_81</t>
+  </si>
+  <si>
+    <t>elc*DEU_0081</t>
+  </si>
+  <si>
+    <t>rez_DEU_82</t>
+  </si>
+  <si>
+    <t>elc*DEU_0082</t>
+  </si>
+  <si>
+    <t>rez_DEU_83</t>
+  </si>
+  <si>
+    <t>elc*DEU_0083</t>
+  </si>
+  <si>
+    <t>rez_DEU_84</t>
+  </si>
+  <si>
+    <t>elc*DEU_0084</t>
+  </si>
+  <si>
+    <t>rez_DEU_85</t>
+  </si>
+  <si>
+    <t>elc*DEU_0085</t>
+  </si>
+  <si>
+    <t>rez_DEU_86</t>
+  </si>
+  <si>
+    <t>elc*DEU_0086</t>
+  </si>
+  <si>
+    <t>rez_DEU_87</t>
+  </si>
+  <si>
+    <t>elc*DEU_0087</t>
+  </si>
+  <si>
+    <t>rez_DEU_88</t>
+  </si>
+  <si>
+    <t>elc*DEU_0088</t>
+  </si>
+  <si>
+    <t>rez_DEU_89</t>
+  </si>
+  <si>
+    <t>elc*DEU_0089</t>
+  </si>
+  <si>
+    <t>rez_DEU_90</t>
+  </si>
+  <si>
+    <t>elc*DEU_0090</t>
+  </si>
+  <si>
+    <t>rez_DEU_91</t>
+  </si>
+  <si>
+    <t>elc*DEU_0091</t>
+  </si>
+  <si>
+    <t>rez_DEU_92</t>
+  </si>
+  <si>
+    <t>elc*DEU_0092</t>
+  </si>
+  <si>
+    <t>rez_DEU_93</t>
+  </si>
+  <si>
+    <t>elc*DEU_0093</t>
+  </si>
+  <si>
+    <t>rez_DEU_94</t>
+  </si>
+  <si>
+    <t>elc*DEU_0094</t>
+  </si>
+  <si>
+    <t>rez_DEU_95</t>
+  </si>
+  <si>
+    <t>elc*DEU_0095</t>
+  </si>
+  <si>
+    <t>rez_DEU_96</t>
+  </si>
+  <si>
+    <t>elc*DEU_0096</t>
+  </si>
+  <si>
+    <t>rez_DEU_97</t>
+  </si>
+  <si>
+    <t>elc*DEU_0097</t>
+  </si>
+  <si>
+    <t>rez_DEU_98</t>
+  </si>
+  <si>
+    <t>elc*DEU_0098</t>
+  </si>
+  <si>
+    <t>rez_DEU_99</t>
+  </si>
+  <si>
+    <t>elc*DEU_0099</t>
+  </si>
+  <si>
     <t>rez_DEU_100</t>
   </si>
   <si>
@@ -4246,12 +4822,6 @@
     <t>elc*DEU_0109</t>
   </si>
   <si>
-    <t>rez_DEU_11</t>
-  </si>
-  <si>
-    <t>elc*DEU_0011</t>
-  </si>
-  <si>
     <t>rez_DEU_110</t>
   </si>
   <si>
@@ -4312,12 +4882,6 @@
     <t>elc*DEU_0119</t>
   </si>
   <si>
-    <t>rez_DEU_12</t>
-  </si>
-  <si>
-    <t>elc*DEU_0012</t>
-  </si>
-  <si>
     <t>rez_DEU_120</t>
   </si>
   <si>
@@ -4378,12 +4942,6 @@
     <t>elc*DEU_0129</t>
   </si>
   <si>
-    <t>rez_DEU_13</t>
-  </si>
-  <si>
-    <t>elc*DEU_0013</t>
-  </si>
-  <si>
     <t>rez_DEU_130</t>
   </si>
   <si>
@@ -4444,12 +5002,6 @@
     <t>elc*DEU_0139</t>
   </si>
   <si>
-    <t>rez_DEU_14</t>
-  </si>
-  <si>
-    <t>elc*DEU_0014</t>
-  </si>
-  <si>
     <t>rez_DEU_140</t>
   </si>
   <si>
@@ -4510,12 +5062,6 @@
     <t>elc*DEU_0149</t>
   </si>
   <si>
-    <t>rez_DEU_15</t>
-  </si>
-  <si>
-    <t>elc*DEU_0015</t>
-  </si>
-  <si>
     <t>rez_DEU_150</t>
   </si>
   <si>
@@ -4576,12 +5122,6 @@
     <t>elc*DEU_0159</t>
   </si>
   <si>
-    <t>rez_DEU_16</t>
-  </si>
-  <si>
-    <t>elc*DEU_0016</t>
-  </si>
-  <si>
     <t>rez_DEU_160</t>
   </si>
   <si>
@@ -4642,12 +5182,6 @@
     <t>elc*DEU_0169</t>
   </si>
   <si>
-    <t>rez_DEU_17</t>
-  </si>
-  <si>
-    <t>elc*DEU_0017</t>
-  </si>
-  <si>
     <t>rez_DEU_170</t>
   </si>
   <si>
@@ -4708,12 +5242,6 @@
     <t>elc*DEU_0179</t>
   </si>
   <si>
-    <t>rez_DEU_18</t>
-  </si>
-  <si>
-    <t>elc*DEU_0018</t>
-  </si>
-  <si>
     <t>rez_DEU_180</t>
   </si>
   <si>
@@ -4766,534 +5294,6 @@
   </si>
   <si>
     <t>elc*DEU_0188</t>
-  </si>
-  <si>
-    <t>rez_DEU_19</t>
-  </si>
-  <si>
-    <t>elc*DEU_0019</t>
-  </si>
-  <si>
-    <t>rez_DEU_2</t>
-  </si>
-  <si>
-    <t>elc*DEU_0002</t>
-  </si>
-  <si>
-    <t>rez_DEU_20</t>
-  </si>
-  <si>
-    <t>elc*DEU_0020</t>
-  </si>
-  <si>
-    <t>rez_DEU_21</t>
-  </si>
-  <si>
-    <t>elc*DEU_0021</t>
-  </si>
-  <si>
-    <t>rez_DEU_22</t>
-  </si>
-  <si>
-    <t>elc*DEU_0022</t>
-  </si>
-  <si>
-    <t>rez_DEU_23</t>
-  </si>
-  <si>
-    <t>elc*DEU_0023</t>
-  </si>
-  <si>
-    <t>rez_DEU_24</t>
-  </si>
-  <si>
-    <t>elc*DEU_0024</t>
-  </si>
-  <si>
-    <t>rez_DEU_25</t>
-  </si>
-  <si>
-    <t>elc*DEU_0025</t>
-  </si>
-  <si>
-    <t>rez_DEU_26</t>
-  </si>
-  <si>
-    <t>elc*DEU_0026</t>
-  </si>
-  <si>
-    <t>rez_DEU_27</t>
-  </si>
-  <si>
-    <t>elc*DEU_0027</t>
-  </si>
-  <si>
-    <t>rez_DEU_28</t>
-  </si>
-  <si>
-    <t>elc*DEU_0028</t>
-  </si>
-  <si>
-    <t>rez_DEU_29</t>
-  </si>
-  <si>
-    <t>elc*DEU_0029</t>
-  </si>
-  <si>
-    <t>rez_DEU_3</t>
-  </si>
-  <si>
-    <t>elc*DEU_0003</t>
-  </si>
-  <si>
-    <t>rez_DEU_30</t>
-  </si>
-  <si>
-    <t>elc*DEU_0030</t>
-  </si>
-  <si>
-    <t>rez_DEU_31</t>
-  </si>
-  <si>
-    <t>elc*DEU_0031</t>
-  </si>
-  <si>
-    <t>rez_DEU_32</t>
-  </si>
-  <si>
-    <t>elc*DEU_0032</t>
-  </si>
-  <si>
-    <t>rez_DEU_33</t>
-  </si>
-  <si>
-    <t>elc*DEU_0033</t>
-  </si>
-  <si>
-    <t>rez_DEU_34</t>
-  </si>
-  <si>
-    <t>elc*DEU_0034</t>
-  </si>
-  <si>
-    <t>rez_DEU_35</t>
-  </si>
-  <si>
-    <t>elc*DEU_0035</t>
-  </si>
-  <si>
-    <t>rez_DEU_36</t>
-  </si>
-  <si>
-    <t>elc*DEU_0036</t>
-  </si>
-  <si>
-    <t>rez_DEU_37</t>
-  </si>
-  <si>
-    <t>elc*DEU_0037</t>
-  </si>
-  <si>
-    <t>rez_DEU_38</t>
-  </si>
-  <si>
-    <t>elc*DEU_0038</t>
-  </si>
-  <si>
-    <t>rez_DEU_39</t>
-  </si>
-  <si>
-    <t>elc*DEU_0039</t>
-  </si>
-  <si>
-    <t>rez_DEU_4</t>
-  </si>
-  <si>
-    <t>elc*DEU_0004</t>
-  </si>
-  <si>
-    <t>rez_DEU_40</t>
-  </si>
-  <si>
-    <t>elc*DEU_0040</t>
-  </si>
-  <si>
-    <t>rez_DEU_41</t>
-  </si>
-  <si>
-    <t>elc*DEU_0041</t>
-  </si>
-  <si>
-    <t>rez_DEU_42</t>
-  </si>
-  <si>
-    <t>elc*DEU_0042</t>
-  </si>
-  <si>
-    <t>rez_DEU_43</t>
-  </si>
-  <si>
-    <t>elc*DEU_0043</t>
-  </si>
-  <si>
-    <t>rez_DEU_44</t>
-  </si>
-  <si>
-    <t>elc*DEU_0044</t>
-  </si>
-  <si>
-    <t>rez_DEU_45</t>
-  </si>
-  <si>
-    <t>elc*DEU_0045</t>
-  </si>
-  <si>
-    <t>rez_DEU_46</t>
-  </si>
-  <si>
-    <t>elc*DEU_0046</t>
-  </si>
-  <si>
-    <t>rez_DEU_47</t>
-  </si>
-  <si>
-    <t>elc*DEU_0047</t>
-  </si>
-  <si>
-    <t>rez_DEU_48</t>
-  </si>
-  <si>
-    <t>elc*DEU_0048</t>
-  </si>
-  <si>
-    <t>rez_DEU_49</t>
-  </si>
-  <si>
-    <t>elc*DEU_0049</t>
-  </si>
-  <si>
-    <t>rez_DEU_5</t>
-  </si>
-  <si>
-    <t>elc*DEU_0005</t>
-  </si>
-  <si>
-    <t>rez_DEU_50</t>
-  </si>
-  <si>
-    <t>elc*DEU_0050</t>
-  </si>
-  <si>
-    <t>rez_DEU_52</t>
-  </si>
-  <si>
-    <t>elc*DEU_0052</t>
-  </si>
-  <si>
-    <t>rez_DEU_53</t>
-  </si>
-  <si>
-    <t>elc*DEU_0053</t>
-  </si>
-  <si>
-    <t>rez_DEU_54</t>
-  </si>
-  <si>
-    <t>elc*DEU_0054</t>
-  </si>
-  <si>
-    <t>rez_DEU_55</t>
-  </si>
-  <si>
-    <t>elc*DEU_0055</t>
-  </si>
-  <si>
-    <t>rez_DEU_56</t>
-  </si>
-  <si>
-    <t>elc*DEU_0056</t>
-  </si>
-  <si>
-    <t>rez_DEU_57</t>
-  </si>
-  <si>
-    <t>elc*DEU_0057</t>
-  </si>
-  <si>
-    <t>rez_DEU_58</t>
-  </si>
-  <si>
-    <t>elc*DEU_0058</t>
-  </si>
-  <si>
-    <t>rez_DEU_59</t>
-  </si>
-  <si>
-    <t>elc*DEU_0059</t>
-  </si>
-  <si>
-    <t>rez_DEU_6</t>
-  </si>
-  <si>
-    <t>elc*DEU_0006</t>
-  </si>
-  <si>
-    <t>rez_DEU_60</t>
-  </si>
-  <si>
-    <t>elc*DEU_0060</t>
-  </si>
-  <si>
-    <t>rez_DEU_61</t>
-  </si>
-  <si>
-    <t>elc*DEU_0061</t>
-  </si>
-  <si>
-    <t>rez_DEU_62</t>
-  </si>
-  <si>
-    <t>elc*DEU_0062</t>
-  </si>
-  <si>
-    <t>rez_DEU_63</t>
-  </si>
-  <si>
-    <t>elc*DEU_0063</t>
-  </si>
-  <si>
-    <t>rez_DEU_64</t>
-  </si>
-  <si>
-    <t>elc*DEU_0064</t>
-  </si>
-  <si>
-    <t>rez_DEU_65</t>
-  </si>
-  <si>
-    <t>elc*DEU_0065</t>
-  </si>
-  <si>
-    <t>rez_DEU_66</t>
-  </si>
-  <si>
-    <t>elc*DEU_0066</t>
-  </si>
-  <si>
-    <t>rez_DEU_67</t>
-  </si>
-  <si>
-    <t>elc*DEU_0067</t>
-  </si>
-  <si>
-    <t>rez_DEU_68</t>
-  </si>
-  <si>
-    <t>elc*DEU_0068</t>
-  </si>
-  <si>
-    <t>rez_DEU_69</t>
-  </si>
-  <si>
-    <t>elc*DEU_0069</t>
-  </si>
-  <si>
-    <t>rez_DEU_7</t>
-  </si>
-  <si>
-    <t>elc*DEU_0007</t>
-  </si>
-  <si>
-    <t>rez_DEU_70</t>
-  </si>
-  <si>
-    <t>elc*DEU_0070</t>
-  </si>
-  <si>
-    <t>rez_DEU_71</t>
-  </si>
-  <si>
-    <t>elc*DEU_0071</t>
-  </si>
-  <si>
-    <t>rez_DEU_72</t>
-  </si>
-  <si>
-    <t>elc*DEU_0072</t>
-  </si>
-  <si>
-    <t>rez_DEU_73</t>
-  </si>
-  <si>
-    <t>elc*DEU_0073</t>
-  </si>
-  <si>
-    <t>rez_DEU_74</t>
-  </si>
-  <si>
-    <t>elc*DEU_0074</t>
-  </si>
-  <si>
-    <t>rez_DEU_75</t>
-  </si>
-  <si>
-    <t>elc*DEU_0075</t>
-  </si>
-  <si>
-    <t>rez_DEU_76</t>
-  </si>
-  <si>
-    <t>elc*DEU_0076</t>
-  </si>
-  <si>
-    <t>rez_DEU_77</t>
-  </si>
-  <si>
-    <t>elc*DEU_0077</t>
-  </si>
-  <si>
-    <t>rez_DEU_78</t>
-  </si>
-  <si>
-    <t>elc*DEU_0078</t>
-  </si>
-  <si>
-    <t>rez_DEU_79</t>
-  </si>
-  <si>
-    <t>elc*DEU_0079</t>
-  </si>
-  <si>
-    <t>rez_DEU_8</t>
-  </si>
-  <si>
-    <t>elc*DEU_0008</t>
-  </si>
-  <si>
-    <t>rez_DEU_80</t>
-  </si>
-  <si>
-    <t>elc*DEU_0080</t>
-  </si>
-  <si>
-    <t>rez_DEU_81</t>
-  </si>
-  <si>
-    <t>elc*DEU_0081</t>
-  </si>
-  <si>
-    <t>rez_DEU_82</t>
-  </si>
-  <si>
-    <t>elc*DEU_0082</t>
-  </si>
-  <si>
-    <t>rez_DEU_83</t>
-  </si>
-  <si>
-    <t>elc*DEU_0083</t>
-  </si>
-  <si>
-    <t>rez_DEU_84</t>
-  </si>
-  <si>
-    <t>elc*DEU_0084</t>
-  </si>
-  <si>
-    <t>rez_DEU_85</t>
-  </si>
-  <si>
-    <t>elc*DEU_0085</t>
-  </si>
-  <si>
-    <t>rez_DEU_86</t>
-  </si>
-  <si>
-    <t>elc*DEU_0086</t>
-  </si>
-  <si>
-    <t>rez_DEU_87</t>
-  </si>
-  <si>
-    <t>elc*DEU_0087</t>
-  </si>
-  <si>
-    <t>rez_DEU_88</t>
-  </si>
-  <si>
-    <t>elc*DEU_0088</t>
-  </si>
-  <si>
-    <t>rez_DEU_89</t>
-  </si>
-  <si>
-    <t>elc*DEU_0089</t>
-  </si>
-  <si>
-    <t>rez_DEU_9</t>
-  </si>
-  <si>
-    <t>elc*DEU_0009</t>
-  </si>
-  <si>
-    <t>rez_DEU_90</t>
-  </si>
-  <si>
-    <t>elc*DEU_0090</t>
-  </si>
-  <si>
-    <t>rez_DEU_91</t>
-  </si>
-  <si>
-    <t>elc*DEU_0091</t>
-  </si>
-  <si>
-    <t>rez_DEU_92</t>
-  </si>
-  <si>
-    <t>elc*DEU_0092</t>
-  </si>
-  <si>
-    <t>rez_DEU_93</t>
-  </si>
-  <si>
-    <t>elc*DEU_0093</t>
-  </si>
-  <si>
-    <t>rez_DEU_94</t>
-  </si>
-  <si>
-    <t>elc*DEU_0094</t>
-  </si>
-  <si>
-    <t>rez_DEU_95</t>
-  </si>
-  <si>
-    <t>elc*DEU_0095</t>
-  </si>
-  <si>
-    <t>rez_DEU_96</t>
-  </si>
-  <si>
-    <t>elc*DEU_0096</t>
-  </si>
-  <si>
-    <t>rez_DEU_97</t>
-  </si>
-  <si>
-    <t>elc*DEU_0097</t>
-  </si>
-  <si>
-    <t>rez_DEU_98</t>
-  </si>
-  <si>
-    <t>elc*DEU_0098</t>
-  </si>
-  <si>
-    <t>rez_DEU_99</t>
-  </si>
-  <si>
-    <t>elc*DEU_0099</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
@@ -5494,7 +5494,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D056FD3-1304-8747-84EC-696771C82128}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1B3D49-C91D-7A01-7C51-416489E6FE7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6276,7 +6276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41FD01B-BC74-4E32-A91F-4EE6802853CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7572081E-A565-42DD-8D8C-0EED759F4859}">
   <dimension ref="A1:H829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AF9189-1BC4-4B13-A421-E49EBD04F41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E973DDE2-15DC-4521-BBF5-566DB535F68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5494,7 +5494,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1B3D49-C91D-7A01-7C51-416489E6FE7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3FF93F-B9AD-9E70-FACB-434B0BC44A0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6276,7 +6276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7572081E-A565-42DD-8D8C-0EED759F4859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71597DF9-7C14-4E91-A296-4BDD861765E2}">
   <dimension ref="A1:H829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67A022D-5BA5-4AAC-A5D6-07BF0B1DBF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA410D1-1EC1-4F90-86C5-C0235F709EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6367,7 +6367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74734D41-2566-49BE-B2B4-8082A45A64A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE0AE9B-E07A-4CF7-A326-EA5F434E8479}">
   <dimension ref="B2:C867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA410D1-1EC1-4F90-86C5-C0235F709EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{740F056E-275D-47F1-994F-062FB6CD7058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6367,7 +6367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE0AE9B-E07A-4CF7-A326-EA5F434E8479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E96A572-6CDA-4114-804A-7AD5E73692EE}">
   <dimension ref="B2:C867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{740F056E-275D-47F1-994F-062FB6CD7058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B4B954-79B2-4906-9B67-6AFBA087C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6367,7 +6367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E96A572-6CDA-4114-804A-7AD5E73692EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAD47CD-5BC5-4117-9BA7-E67290F49ACE}">
   <dimension ref="B2:C867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B4B954-79B2-4906-9B67-6AFBA087C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC9DCDF5-1391-4056-A0AF-F532E7F93202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6367,7 +6367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAD47CD-5BC5-4117-9BA7-E67290F49ACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA7C4DA-A3AF-4207-9894-41FEECEB6AF8}">
   <dimension ref="B2:C867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC9DCDF5-1391-4056-A0AF-F532E7F93202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D6E0B7C-7798-40BF-B06B-88D0F90522C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6367,7 +6367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA7C4DA-A3AF-4207-9894-41FEECEB6AF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7187546A-BD4B-4003-8ED9-9AEBFD672674}">
   <dimension ref="B2:C867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_DEU_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D6E0B7C-7798-40BF-B06B-88D0F90522C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D4E9D0A-4ABD-4FC1-9E66-4BD059DACECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6367,7 +6367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7187546A-BD4B-4003-8ED9-9AEBFD672674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F847D36-1DC5-45BF-9D73-38387E4F1722}">
   <dimension ref="B2:C867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
